--- a/data/respirometry/middle/final_rates/100_rates.xlsx
+++ b/data/respirometry/middle/final_rates/100_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z2">
-        <v>-0.08911425777953853</v>
+        <v>-0.08228521019851517</v>
       </c>
       <c r="AB2">
-        <v>-0.003564570311181541</v>
+        <v>-370.5520326328386</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.003564570311181541</v>
+        <v>-370.5520326328386</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z3">
-        <v>-0.151981272147066</v>
+        <v>-0.1400753476368244</v>
       </c>
       <c r="AB3">
-        <v>-0.00607925088588264</v>
+        <v>-546.0060297268269</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.00607925088588264</v>
+        <v>-546.0060297268269</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z4">
-        <v>-0.1380036250088899</v>
+        <v>-0.1320049077317648</v>
       </c>
       <c r="AB4">
-        <v>-0.005520145000355596</v>
+        <v>-529.8818056085159</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.005520145000355596</v>
+        <v>-529.8818056085159</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z5">
-        <v>-0.1277013786515664</v>
+        <v>-0.121577720776101</v>
       </c>
       <c r="AB5">
-        <v>-0.005108055146062654</v>
+        <v>-583.7576957914285</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.005108055146062654</v>
+        <v>-583.7576957914285</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z6">
-        <v>-0.1416244623694851</v>
+        <v>-0.1354951947609839</v>
       </c>
       <c r="AB6">
-        <v>-0.005664978494779403</v>
+        <v>-843.0812118461221</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.005664978494779403</v>
+        <v>-843.0812118461221</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z7">
-        <v>-0.1439100145355259</v>
+        <v>-0.1356091046061895</v>
       </c>
       <c r="AB7">
-        <v>-0.005756400581421036</v>
+        <v>-603.3432340966085</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.005756400581421036</v>
+        <v>-603.3432340966085</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.007026149758272545</v>
-      </c>
-      <c r="AB8">
-        <v>0.0002810459903309018</v>
+        <v>0.007024329983665378</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>0.0002810459903309018</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z9">
-        <v>0.03026600979743679</v>
+        <v>0.02794665006595875</v>
       </c>
       <c r="AB9">
-        <v>0.001210640391897472</v>
+        <v>125.8511458163175</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.001210640391897472</v>
+        <v>125.8511458163175</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z10">
-        <v>-0.002153710826610469</v>
+        <v>-0.001984993206628306</v>
       </c>
       <c r="AB10">
-        <v>-8.614843306441875E-05</v>
+        <v>-7.737394752686086</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>-8.614843306441875E-05</v>
+        <v>-7.737394752686086</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z11">
-        <v>0.1266516962986047</v>
+        <v>0.1211464226602152</v>
       </c>
       <c r="AB11">
-        <v>0.005066067851944188</v>
+        <v>486.29468619946</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.005066067851944188</v>
+        <v>486.29468619946</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z12">
-        <v>0.1097603147870776</v>
+        <v>0.1044969838570853</v>
       </c>
       <c r="AB12">
-        <v>0.004390412591483103</v>
+        <v>501.7442186295485</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.004390412591483103</v>
+        <v>501.7442186295485</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z13">
-        <v>0.1152525756566028</v>
+        <v>0.1102646387779767</v>
       </c>
       <c r="AB13">
-        <v>0.00461010302626411</v>
+        <v>686.0910857296326</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.00461010302626411</v>
+        <v>686.0910857296326</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z14">
-        <v>-0.02273366593313118</v>
+        <v>-0.02142235960129866</v>
       </c>
       <c r="AB14">
-        <v>-0.0009093466373252472</v>
+        <v>-95.31097311911708</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>-0.0009093466373252472</v>
+        <v>-95.31097311911708</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.0006683650501328089</v>
-      </c>
-      <c r="AB15">
-        <v>-2.673460200531236E-05</v>
+        <v>-0.0006681919434117178</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>-2.673460200531236E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>-Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
